--- a/formurae.xlsx
+++ b/formurae.xlsx
@@ -444,6 +444,15 @@
       <c r="A3" t="n">
         <v>7</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PRODUCT:</t>
+        </is>
+      </c>
+      <c r="D3">
+        <f>PRODUCT(A1:A5)</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">

--- a/formurae.xlsx
+++ b/formurae.xlsx
@@ -458,10 +458,28 @@
       <c r="A4" t="n">
         <v>9</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>COUNT:</t>
+        </is>
+      </c>
+      <c r="D4">
+        <f>COUNT(A1:A9)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MEAN:</t>
+        </is>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(A1:A5)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/formurae.xlsx
+++ b/formurae.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CakeSales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +414,112 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Cake</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Chocolate</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cheesecake</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tres Leches</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Carrot</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Red Velvet</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/formurae.xlsx
+++ b/formurae.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,10 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2">
+        <f>$B$2*$C$2</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -469,6 +473,10 @@
       <c r="C3" t="n">
         <v>4.5</v>
       </c>
+      <c r="D3">
+        <f>$B$3*$C$3</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -482,6 +490,10 @@
       <c r="C4" t="n">
         <v>5.5</v>
       </c>
+      <c r="D4">
+        <f>$B$4*$C$4</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -495,6 +507,10 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5">
+        <f>$B$5*$C$5</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -507,6 +523,21 @@
       </c>
       <c r="C6" t="n">
         <v>4.5</v>
+      </c>
+      <c r="D6">
+        <f>$B$6*$C$6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Total Sales:</t>
+        </is>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D6)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/formurae.xlsx
+++ b/formurae.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -47,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -453,10 +456,10 @@
       <c r="B2" t="n">
         <v>18</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>$B$2*$C$2</f>
         <v/>
       </c>
@@ -470,10 +473,10 @@
       <c r="B3" t="n">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>$B$3*$C$3</f>
         <v/>
       </c>
@@ -487,10 +490,10 @@
       <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f>$B$4*$C$4</f>
         <v/>
       </c>
@@ -504,10 +507,10 @@
       <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f>$B$5*$C$5</f>
         <v/>
       </c>
@@ -521,10 +524,10 @@
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f>$B$6*$C$6</f>
         <v/>
       </c>
@@ -535,7 +538,7 @@
           <t>Total Sales:</t>
         </is>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f>SUM(D2:D6)</f>
         <v/>
       </c>
